--- a/agents/ConnectFour/csv/mCompeteMCTS-vs-MWrap.xlsx
+++ b/agents/ConnectFour/csv/mCompeteMCTS-vs-MWrap.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\ConnectFour\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E7307BF6-3CB8-4692-BDB7-8A518C3526D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4741FC0D-8286-4DE1-8935-B26755FFA525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mCompeteMCTS-vs-MWrap" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'mCompeteMCTS-vs-MWrap'!$A$3:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -530,11 +530,109 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,7 +640,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,7 +651,33 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,34 +687,10 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,31 +739,37 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1018,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,140 +1752,142 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J3"/>
+  <autoFilter ref="A3:J3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
-      <c r="D5" s="11" t="s">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
         <v>5.5511151231257802E-17</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="13">
         <v>0.39999999999999902</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="12">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
         <v>50</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="15">
         <v>0.8</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="16">
         <v>0.89999999999999902</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="12">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="17">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="18">
         <v>0.85</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="12">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="17">
         <v>200</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="12">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="17">
         <v>300</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="12">
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="17">
         <v>500</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="12">
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="17">
         <v>600</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="12">
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="17">
         <v>800</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="13">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
         <v>1000</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
     </row>
